--- a/Ассоциации Входы в пространства.xlsx
+++ b/Ассоциации Входы в пространства.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llonan\Desktop\navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llonan\Desktop\Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6DF88ED-F009-418C-94FC-07AAF774E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E62BB-9C10-4A65-BFE4-05545441634F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CD388937-486F-4776-8430-170D180895BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" activeTab="2" xr2:uid="{CD388937-486F-4776-8430-170D180895BA}"/>
   </bookViews>
   <sheets>
     <sheet name="A-1" sheetId="1" r:id="rId1"/>
     <sheet name="A-2" sheetId="2" r:id="rId2"/>
+    <sheet name="N-3" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>a-112a</t>
   </si>
@@ -143,6 +145,18 @@
   </si>
   <si>
     <t>a-200</t>
+  </si>
+  <si>
+    <t>n-3-stair-2</t>
+  </si>
+  <si>
+    <t>n-3-stair-1</t>
+  </si>
+  <si>
+    <t>n-3-stair-3</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
   </si>
 </sst>
 </file>
@@ -203,7 +217,88 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GothamSSm XNarrow"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GothamSSm XNarrow"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GothamSSm XNarrow"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="GothamSSm XNarrow"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="GothamSSm XNarrow"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -340,25 +435,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38417F1D-169F-49C6-A5C1-F4817F55F458}" name="Таблица1" displayName="Таблица1" ref="A1:B18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38417F1D-169F-49C6-A5C1-F4817F55F458}" name="Таблица1" displayName="Таблица1" ref="A1:B18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:B18" xr:uid="{38417F1D-169F-49C6-A5C1-F4817F55F458}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{03B8A0AA-2828-47C3-80F1-8163E445A883}" name="Полигон" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1AC8F840-A607-49C1-9371-8CA5315633F3}" name="Вход (круг)" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{03B8A0AA-2828-47C3-80F1-8163E445A883}" name="Полигон" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{1AC8F840-A607-49C1-9371-8CA5315633F3}" name="Вход (круг)" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B086EF6-9CFD-42F9-A789-FFE8CA8A07ED}" name="Таблица13" displayName="Таблица13" ref="A1:B18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B086EF6-9CFD-42F9-A789-FFE8CA8A07ED}" name="Таблица13" displayName="Таблица13" ref="A1:B18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:B18" xr:uid="{38417F1D-169F-49C6-A5C1-F4817F55F458}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
     <sortCondition ref="A1:A18"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0993EBA9-8369-4E4B-8554-8CD4194F411A}" name="Полигон" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5AD9ACA7-4434-4EB4-B0B2-575211A8E31E}" name="Вход (круг)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0993EBA9-8369-4E4B-8554-8CD4194F411A}" name="Полигон" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5AD9ACA7-4434-4EB4-B0B2-575211A8E31E}" name="Вход (круг)" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{368C6ABC-D0D6-40EE-9EB3-804E2EDB1357}" name="Таблица134" displayName="Таблица134" ref="A1:C18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C18" xr:uid="{38417F1D-169F-49C6-A5C1-F4817F55F458}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
+    <sortCondition ref="A1:A18"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{82DD9BDE-FB39-4053-BEF8-6D756D2ED81E}" name="Полигон" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3401FED4-2AB2-49FA-8B6C-535394503AE0}" name="Вход (круг)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{EA406622-9FCC-4461-8A97-522E56A03185}" name="Столбец1" dataDxfId="0">
+      <calculatedColumnFormula>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -667,13 +779,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -681,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -697,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -713,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,7 +833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -729,7 +841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -737,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -745,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -753,7 +865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -761,7 +873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -769,7 +881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -777,7 +889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -785,7 +897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -793,7 +905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -801,7 +913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -809,7 +921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -831,17 +943,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375CF19F-A43B-438E-A42B-ECE6BF58AF49}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -849,13 +961,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -863,7 +975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -871,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -879,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -887,7 +999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -895,7 +1007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -903,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -911,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -919,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -927,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -935,7 +1047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -943,7 +1055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -951,7 +1063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -959,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -967,7 +1079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -975,7 +1087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -991,4 +1103,204 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18E3FDF-82CC-45DE-852E-F8AA07393A55}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,Таблица134[Столбец1])</f>
+        <v>['n-3-stair-1','35'],['n-3-stair-2','5'],['n-3-stair-3','16'],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v>['n-3-stair-1','35'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v>['n-3-stair-2','5'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v>['n-3-stair-3','16'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="str">
+        <f>IF(Таблица134[[#This Row],[Полигон]]="","","['"&amp;Таблица134[[#This Row],[Полигон]]&amp;"','"&amp;Таблица134[[#This Row],[Вход (круг)]]&amp;"'],")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B187108-337D-4876-94BF-7D86AFF189EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>